--- a/excels/ASIR_libro.xlsx
+++ b/excels/ASIR_libro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\WA1PEPF00000BB0\EXCELCNV\2c45fc05-7b43-411a-b3ab-778059f189e5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0673872-056F-4BA5-B152-094CB679508D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B56E7B8-4B76-4483-A803-F727356745B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FHW" sheetId="1" r:id="rId1"/>
@@ -3505,6 +3505,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3512,39 +3531,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3553,20 +3554,26 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3574,13 +3581,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3904,7 +3904,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="49"/>
@@ -3914,7 +3914,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="49"/>
@@ -3927,15 +3927,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3975,13 +3975,13 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3997,10 +3997,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4175,10 +4175,10 @@
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="31">
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -4350,10 +4350,10 @@
       <c r="D31" s="49"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="31">
         <v>30</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -4480,10 +4480,10 @@
       <c r="D39" s="49"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="31">
         <v>15</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -4652,10 +4652,10 @@
       <c r="D50" s="49"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="31">
         <v>10</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -4807,17 +4807,18 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J21:J30"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="J32:J38"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B21:B31"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="J40:J49"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="J51:J59"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C51:C60"/>
     <mergeCell ref="B51:B60"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B8:B9"/>
@@ -4834,18 +4835,17 @@
     <mergeCell ref="D57:D60"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="J51:J59"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C51:C60"/>
-    <mergeCell ref="B21:B31"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="J40:J49"/>
-    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J21:J30"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J32:J38"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D22:D26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4872,7 +4872,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>583</v>
       </c>
       <c r="D1" s="49"/>
@@ -4882,7 +4882,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>584</v>
       </c>
       <c r="D2" s="49"/>
@@ -4895,15 +4895,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>585</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -4949,13 +4949,13 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4971,10 +4971,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="47">
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -5182,10 +5182,10 @@
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="30" t="s">
         <v>599</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="47">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -5366,10 +5366,10 @@
       <c r="D32" s="49"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="30" t="s">
         <v>609</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="47">
         <v>20</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -5538,10 +5538,10 @@
       <c r="D42" s="49"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="47">
         <v>20</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -5725,10 +5725,10 @@
       <c r="D53" s="49"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C54" s="47">
         <v>5</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -5915,10 +5915,10 @@
       <c r="D64" s="49"/>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="30" t="s">
         <v>638</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="31">
         <v>10</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -6084,10 +6084,10 @@
       <c r="D74" s="49"/>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="30" t="s">
         <v>647</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="31">
         <v>30</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -6275,6 +6275,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="J10:J20"/>
+    <mergeCell ref="J22:J31"/>
+    <mergeCell ref="J54:J63"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B75:B85"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C10:C21"/>
+    <mergeCell ref="B54:B64"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C22:C32"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D50:D53"/>
     <mergeCell ref="J75:J84"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C54:C64"/>
@@ -6291,39 +6324,6 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="D71:D74"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="B54:B64"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C22:C32"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B75:B85"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="B22:B32"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="J10:J20"/>
-    <mergeCell ref="J22:J31"/>
-    <mergeCell ref="J54:J63"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6350,7 +6350,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>657</v>
       </c>
       <c r="D1" s="49"/>
@@ -6360,7 +6360,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>658</v>
       </c>
       <c r="D2" s="49"/>
@@ -6373,15 +6373,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>659</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -6427,13 +6427,13 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6449,10 +6449,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -6587,10 +6587,10 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="31">
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -6777,10 +6777,10 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="31">
         <v>15</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -6969,10 +6969,10 @@
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="31">
         <v>25</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -7127,10 +7127,10 @@
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="30" t="s">
         <v>701</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="31">
         <v>20</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -7295,10 +7295,10 @@
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="30" t="s">
         <v>710</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="31">
         <v>10</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -7487,6 +7487,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C29:C39"/>
+    <mergeCell ref="J59:J67"/>
+    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="C49:C58"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="C10:C17"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D50:D53"/>
     <mergeCell ref="J49:J57"/>
@@ -7503,34 +7531,6 @@
     <mergeCell ref="D19:D23"/>
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="C18:C28"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="C40:C48"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C29:C39"/>
-    <mergeCell ref="J59:J67"/>
-    <mergeCell ref="B49:B58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="B59:B68"/>
-    <mergeCell ref="C49:C58"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="B18:B28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7558,7 +7558,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D1" s="49"/>
@@ -7568,7 +7568,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>722</v>
       </c>
       <c r="D2" s="49"/>
@@ -7581,15 +7581,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>659</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -7635,13 +7635,13 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7652,15 +7652,15 @@
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
       <c r="G9" s="49"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>725</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -7684,7 +7684,7 @@
     <row r="11" spans="2:10" ht="30.75">
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="30" t="s">
         <v>726</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -7698,7 +7698,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="7" t="s">
         <v>728</v>
       </c>
@@ -7710,7 +7710,7 @@
     <row r="13" spans="2:10">
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="7" t="s">
         <v>729</v>
       </c>
@@ -7722,7 +7722,7 @@
     <row r="14" spans="2:10">
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="31"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="7" t="s">
         <v>730</v>
       </c>
@@ -7737,7 +7737,7 @@
     <row r="15" spans="2:10" ht="30.75">
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
-      <c r="D15" s="31"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="7" t="s">
         <v>731</v>
       </c>
@@ -7816,10 +7816,10 @@
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="30" t="s">
         <v>738</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="31">
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -7843,7 +7843,7 @@
     <row r="23" spans="2:10" ht="30.75">
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="30" t="s">
         <v>739</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -7857,7 +7857,7 @@
     <row r="24" spans="2:10" ht="30.75">
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
-      <c r="D24" s="31"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="7" t="s">
         <v>741</v>
       </c>
@@ -7869,7 +7869,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
-      <c r="D25" s="31"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="7" t="s">
         <v>742</v>
       </c>
@@ -7881,7 +7881,7 @@
     <row r="26" spans="2:10">
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
-      <c r="D26" s="31"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="7" t="s">
         <v>743</v>
       </c>
@@ -7939,10 +7939,10 @@
       <c r="D30" s="49"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="31">
         <v>20</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -7966,7 +7966,7 @@
     <row r="32" spans="2:10" ht="30.75">
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="30" t="s">
         <v>749</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -7980,7 +7980,7 @@
     <row r="33" spans="2:10">
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
-      <c r="D33" s="31"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="7" t="s">
         <v>751</v>
       </c>
@@ -7992,7 +7992,7 @@
     <row r="34" spans="2:10">
       <c r="B34" s="49"/>
       <c r="C34" s="49"/>
-      <c r="D34" s="31"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="7" t="s">
         <v>752</v>
       </c>
@@ -8004,7 +8004,7 @@
     <row r="35" spans="2:10">
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
-      <c r="D35" s="31"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="7" t="s">
         <v>753</v>
       </c>
@@ -8019,7 +8019,7 @@
     <row r="36" spans="2:10">
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
-      <c r="D36" s="31"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="7" t="s">
         <v>754</v>
       </c>
@@ -8098,10 +8098,10 @@
       <c r="D42" s="49"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="30" t="s">
         <v>760</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="31">
         <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -8125,7 +8125,7 @@
     <row r="44" spans="2:10">
       <c r="B44" s="49"/>
       <c r="C44" s="49"/>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="30" t="s">
         <v>761</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -8139,7 +8139,7 @@
     <row r="45" spans="2:10">
       <c r="B45" s="49"/>
       <c r="C45" s="49"/>
-      <c r="D45" s="31"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="7" t="s">
         <v>763</v>
       </c>
@@ -8151,7 +8151,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="49"/>
       <c r="C46" s="49"/>
-      <c r="D46" s="31"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="7" t="s">
         <v>764</v>
       </c>
@@ -8163,7 +8163,7 @@
     <row r="47" spans="2:10">
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
-      <c r="D47" s="31"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="7" t="s">
         <v>765</v>
       </c>
@@ -8175,7 +8175,7 @@
     <row r="48" spans="2:10">
       <c r="B48" s="49"/>
       <c r="C48" s="49"/>
-      <c r="D48" s="31"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="7" t="s">
         <v>766</v>
       </c>
@@ -8242,10 +8242,10 @@
       <c r="D53" s="49"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="30" t="s">
         <v>772</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="31">
         <v>5</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -8269,7 +8269,7 @@
     <row r="55" spans="2:10" ht="30.75">
       <c r="B55" s="49"/>
       <c r="C55" s="49"/>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="30" t="s">
         <v>761</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -8283,7 +8283,7 @@
     <row r="56" spans="2:10">
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
-      <c r="D56" s="31"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="7" t="s">
         <v>774</v>
       </c>
@@ -8295,7 +8295,7 @@
     <row r="57" spans="2:10">
       <c r="B57" s="49"/>
       <c r="C57" s="49"/>
-      <c r="D57" s="31"/>
+      <c r="D57" s="32"/>
       <c r="E57" s="7" t="s">
         <v>775</v>
       </c>
@@ -8307,7 +8307,7 @@
     <row r="58" spans="2:10" ht="30.75">
       <c r="B58" s="49"/>
       <c r="C58" s="49"/>
-      <c r="D58" s="31"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="7" t="s">
         <v>776</v>
       </c>
@@ -8319,7 +8319,7 @@
     <row r="59" spans="2:10" ht="30.75">
       <c r="B59" s="49"/>
       <c r="C59" s="49"/>
-      <c r="D59" s="31"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="7" t="s">
         <v>777</v>
       </c>
@@ -8386,10 +8386,10 @@
       <c r="D64" s="49"/>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="30" t="s">
         <v>781</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="31">
         <v>10</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -8413,7 +8413,7 @@
     <row r="66" spans="2:10">
       <c r="B66" s="49"/>
       <c r="C66" s="49"/>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="30" t="s">
         <v>782</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -8427,7 +8427,7 @@
     <row r="67" spans="2:10">
       <c r="B67" s="49"/>
       <c r="C67" s="49"/>
-      <c r="D67" s="31"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="7" t="s">
         <v>784</v>
       </c>
@@ -8439,7 +8439,7 @@
     <row r="68" spans="2:10">
       <c r="B68" s="49"/>
       <c r="C68" s="49"/>
-      <c r="D68" s="31"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="7" t="s">
         <v>785</v>
       </c>
@@ -8451,7 +8451,7 @@
     <row r="69" spans="2:10">
       <c r="B69" s="49"/>
       <c r="C69" s="49"/>
-      <c r="D69" s="31"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="7" t="s">
         <v>786</v>
       </c>
@@ -8518,10 +8518,10 @@
       <c r="D74" s="49"/>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="30" t="s">
         <v>791</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="31">
         <v>10</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -8545,7 +8545,7 @@
     <row r="76" spans="2:10">
       <c r="B76" s="49"/>
       <c r="C76" s="49"/>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="30" t="s">
         <v>792</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -8559,7 +8559,7 @@
     <row r="77" spans="2:10">
       <c r="B77" s="49"/>
       <c r="C77" s="49"/>
-      <c r="D77" s="31"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="7" t="s">
         <v>794</v>
       </c>
@@ -8571,7 +8571,7 @@
     <row r="78" spans="2:10">
       <c r="B78" s="49"/>
       <c r="C78" s="49"/>
-      <c r="D78" s="31"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="7" t="s">
         <v>795</v>
       </c>
@@ -8583,7 +8583,7 @@
     <row r="79" spans="2:10">
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
-      <c r="D79" s="31"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="7" t="s">
         <v>796</v>
       </c>
@@ -8650,10 +8650,10 @@
       <c r="D84" s="49"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="30" t="s">
         <v>801</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="31">
         <v>7</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -8677,7 +8677,7 @@
     <row r="86" spans="2:10">
       <c r="B86" s="49"/>
       <c r="C86" s="49"/>
-      <c r="D86" s="23" t="s">
+      <c r="D86" s="30" t="s">
         <v>792</v>
       </c>
       <c r="E86" s="7" t="s">
@@ -8691,7 +8691,7 @@
     <row r="87" spans="2:10">
       <c r="B87" s="49"/>
       <c r="C87" s="49"/>
-      <c r="D87" s="31"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="7" t="s">
         <v>803</v>
       </c>
@@ -8703,7 +8703,7 @@
     <row r="88" spans="2:10">
       <c r="B88" s="49"/>
       <c r="C88" s="49"/>
-      <c r="D88" s="31"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="7" t="s">
         <v>804</v>
       </c>
@@ -8715,7 +8715,7 @@
     <row r="89" spans="2:10">
       <c r="B89" s="49"/>
       <c r="C89" s="49"/>
-      <c r="D89" s="31"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="7" t="s">
         <v>805</v>
       </c>
@@ -8727,7 +8727,7 @@
     <row r="90" spans="2:10">
       <c r="B90" s="49"/>
       <c r="C90" s="49"/>
-      <c r="D90" s="31"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="7" t="s">
         <v>806</v>
       </c>
@@ -8795,28 +8795,22 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C85:C95"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C22:C30"/>
-    <mergeCell ref="C54:C64"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="J65:J73"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="J43:J52"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J31:J41"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B54:B64"/>
+    <mergeCell ref="J54:J63"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="C75:C84"/>
+    <mergeCell ref="B85:B95"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C31:C42"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="J85:J94"/>
+    <mergeCell ref="J10:J20"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C2:E2"/>
@@ -8833,22 +8827,28 @@
     <mergeCell ref="D66:D69"/>
     <mergeCell ref="D44:D48"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B54:B64"/>
-    <mergeCell ref="J54:J63"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="C75:C84"/>
-    <mergeCell ref="B85:B95"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="C31:C42"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="J22:J29"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="J85:J94"/>
-    <mergeCell ref="J10:J20"/>
+    <mergeCell ref="J65:J73"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J43:J52"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="J31:J41"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="C85:C95"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="C54:C64"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C10:C21"/>
+    <mergeCell ref="D92:D95"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8875,7 +8875,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>811</v>
       </c>
       <c r="D1" s="49"/>
@@ -8885,7 +8885,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>812</v>
       </c>
       <c r="D2" s="49"/>
@@ -8898,15 +8898,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>585</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -8952,13 +8952,13 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8974,10 +8974,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>815</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -9124,10 +9124,10 @@
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="30" t="s">
         <v>827</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="31">
         <v>4.5</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -9280,10 +9280,10 @@
       <c r="D30" s="49"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="30" t="s">
         <v>837</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="31">
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -9424,10 +9424,10 @@
       <c r="D41" s="49"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="30" t="s">
         <v>848</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="31">
         <v>0.5</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -9556,10 +9556,10 @@
       <c r="D51" s="49"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="30" t="s">
         <v>859</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="31">
         <v>20</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -9700,10 +9700,10 @@
       <c r="D62" s="49"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="30" t="s">
         <v>870</v>
       </c>
-      <c r="C63" s="24">
+      <c r="C63" s="31">
         <v>20</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -9820,10 +9820,10 @@
       <c r="D71" s="49"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="30" t="s">
         <v>878</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="31">
         <v>5</v>
       </c>
       <c r="D72" s="4" t="s">
@@ -9941,23 +9941,22 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B52:B62"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="J63:J70"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C63:C71"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="J31:J40"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="J52:J61"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J42:J50"/>
     <mergeCell ref="J72:J79"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="C31:C41"/>
@@ -9974,22 +9973,23 @@
     <mergeCell ref="C52:C62"/>
     <mergeCell ref="B21:B30"/>
     <mergeCell ref="D69:D71"/>
-    <mergeCell ref="J63:J70"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C63:C71"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="J31:J40"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="J52:J61"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J42:J50"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B52:B62"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="B72:B80"/>
+    <mergeCell ref="D73:D76"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10016,7 +10016,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>887</v>
       </c>
       <c r="D1" s="49"/>
@@ -10026,7 +10026,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>888</v>
       </c>
       <c r="D2" s="49"/>
@@ -10039,15 +10039,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>231</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -10093,13 +10093,13 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10115,10 +10115,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>891</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -10365,10 +10365,10 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="30" t="s">
         <v>903</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="31">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -10565,10 +10565,10 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="30" t="s">
         <v>913</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="31">
         <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -10765,10 +10765,10 @@
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="30" t="s">
         <v>922</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="31">
         <v>40</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -10936,10 +10936,10 @@
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="30" t="s">
         <v>932</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="31">
         <v>10</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -11136,10 +11136,10 @@
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="30" t="s">
         <v>942</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="31">
         <v>20</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -11288,6 +11288,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J20"/>
+    <mergeCell ref="B62:B70"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C52:C61"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="J42:J50"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C10:C21"/>
     <mergeCell ref="J52:J60"/>
     <mergeCell ref="J62:J69"/>
     <mergeCell ref="C1:E1"/>
@@ -11304,34 +11332,6 @@
     <mergeCell ref="J22:J30"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="D48:D51"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="J42:J50"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J20"/>
-    <mergeCell ref="B62:B70"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C52:C61"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="B22:B31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11358,7 +11358,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>950</v>
       </c>
       <c r="D1" s="49"/>
@@ -11368,7 +11368,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>951</v>
       </c>
       <c r="D2" s="49"/>
@@ -11381,15 +11381,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>585</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -11435,13 +11435,13 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11457,10 +11457,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>954</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>13.5</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -11650,10 +11650,10 @@
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="30" t="s">
         <v>964</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="31">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -11843,10 +11843,10 @@
       <c r="D31" s="49"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="30" t="s">
         <v>974</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="31">
         <v>13.75</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -11994,10 +11994,10 @@
       <c r="D40" s="49"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="30" t="s">
         <v>982</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="31">
         <v>27</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -12172,10 +12172,10 @@
       <c r="D50" s="49"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="30" t="s">
         <v>991</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="31">
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -12350,10 +12350,10 @@
       <c r="D61" s="49"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="30" t="s">
         <v>1001</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="31">
         <v>14.75</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -12546,10 +12546,10 @@
       <c r="D72" s="49"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="30" t="s">
         <v>1011</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C73" s="31">
         <v>2</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -12707,6 +12707,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B21:B31"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="J62:J71"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="J32:J39"/>
+    <mergeCell ref="J21:J30"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="B73:B81"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="B51:B61"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="C73:C81"/>
+    <mergeCell ref="C51:C61"/>
+    <mergeCell ref="B62:B72"/>
+    <mergeCell ref="C62:C72"/>
+    <mergeCell ref="J51:J60"/>
+    <mergeCell ref="J73:J80"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J41:J49"/>
     <mergeCell ref="C1:E1"/>
@@ -12723,39 +12756,6 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="B73:B81"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="B51:B61"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="C73:C81"/>
-    <mergeCell ref="C51:C61"/>
-    <mergeCell ref="B62:B72"/>
-    <mergeCell ref="C62:C72"/>
-    <mergeCell ref="J51:J60"/>
-    <mergeCell ref="J73:J80"/>
-    <mergeCell ref="J62:J71"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="J32:J39"/>
-    <mergeCell ref="J21:J30"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B21:B31"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D47:D50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12782,7 +12782,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>1019</v>
       </c>
       <c r="D1" s="49"/>
@@ -12792,7 +12792,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>1020</v>
       </c>
       <c r="D2" s="49"/>
@@ -12805,15 +12805,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -12859,13 +12859,13 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12881,10 +12881,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -13052,10 +13052,10 @@
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="30" t="s">
         <v>1032</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="31">
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -13196,10 +13196,10 @@
       <c r="D31" s="49"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="30" t="s">
         <v>1043</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="31">
         <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -13349,10 +13349,10 @@
       <c r="D42" s="49"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="30" t="s">
         <v>1054</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="31">
         <v>15</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -13493,10 +13493,10 @@
       <c r="D53" s="49"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="30" t="s">
         <v>1065</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="31">
         <v>20</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -13625,10 +13625,10 @@
       <c r="D63" s="49"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="30" t="s">
         <v>1075</v>
       </c>
-      <c r="C64" s="24">
+      <c r="C64" s="31">
         <v>15</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -13782,13 +13782,27 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="J64:J74"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="B21:B31"/>
+    <mergeCell ref="J32:J41"/>
+    <mergeCell ref="J43:J52"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="J21:J30"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="C64:C75"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="J54:J62"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C21:C31"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J10:J19"/>
     <mergeCell ref="C43:C53"/>
@@ -13805,27 +13819,13 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C21:C31"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="J64:J74"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="B21:B31"/>
-    <mergeCell ref="J32:J41"/>
-    <mergeCell ref="J43:J52"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="J21:J30"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="C64:C75"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="J54:J62"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B10:B20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13852,7 +13852,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>66</v>
       </c>
       <c r="D1" s="49"/>
@@ -13862,7 +13862,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="49"/>
@@ -13875,15 +13875,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -13929,13 +13929,13 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13951,10 +13951,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -13978,7 +13978,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="30" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -13995,7 +13995,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="7" t="s">
         <v>73</v>
       </c>
@@ -14010,7 +14010,7 @@
     <row r="13" spans="2:10">
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="7" t="s">
         <v>74</v>
       </c>
@@ -14025,7 +14025,7 @@
     <row r="14" spans="2:10">
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="31"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="7" t="s">
         <v>75</v>
       </c>
@@ -14040,7 +14040,7 @@
     <row r="15" spans="2:10" ht="30.75">
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
-      <c r="D15" s="31"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="7" t="s">
         <v>76</v>
       </c>
@@ -14131,10 +14131,10 @@
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -14302,10 +14302,10 @@
       <c r="D30" s="49"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -14445,10 +14445,10 @@
       <c r="D39" s="49"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -14472,7 +14472,7 @@
     <row r="41" spans="2:10" ht="30.75">
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="30" t="s">
         <v>104</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -14489,7 +14489,7 @@
     <row r="42" spans="2:10">
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
-      <c r="D42" s="31"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="7" t="s">
         <v>106</v>
       </c>
@@ -14504,7 +14504,7 @@
     <row r="43" spans="2:10">
       <c r="B43" s="49"/>
       <c r="C43" s="49"/>
-      <c r="D43" s="31"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="7" t="s">
         <v>107</v>
       </c>
@@ -14519,7 +14519,7 @@
     <row r="44" spans="2:10">
       <c r="B44" s="49"/>
       <c r="C44" s="49"/>
-      <c r="D44" s="31"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="7" t="s">
         <v>108</v>
       </c>
@@ -14601,10 +14601,10 @@
       <c r="D49" s="49"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -14628,7 +14628,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="49"/>
       <c r="C51" s="49"/>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="30" t="s">
         <v>114</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -14645,7 +14645,7 @@
     <row r="52" spans="2:10">
       <c r="B52" s="49"/>
       <c r="C52" s="49"/>
-      <c r="D52" s="31"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="7" t="s">
         <v>116</v>
       </c>
@@ -14660,7 +14660,7 @@
     <row r="53" spans="2:10">
       <c r="B53" s="49"/>
       <c r="C53" s="49"/>
-      <c r="D53" s="31"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="7" t="s">
         <v>117</v>
       </c>
@@ -14675,7 +14675,7 @@
     <row r="54" spans="2:10">
       <c r="B54" s="49"/>
       <c r="C54" s="49"/>
-      <c r="D54" s="31"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="7" t="s">
         <v>118</v>
       </c>
@@ -14757,10 +14757,10 @@
       <c r="D59" s="49"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -14784,7 +14784,7 @@
     <row r="61" spans="2:10" ht="30.75">
       <c r="B61" s="49"/>
       <c r="C61" s="49"/>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="30" t="s">
         <v>124</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -14801,7 +14801,7 @@
     <row r="62" spans="2:10">
       <c r="B62" s="49"/>
       <c r="C62" s="49"/>
-      <c r="D62" s="31"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="7" t="s">
         <v>126</v>
       </c>
@@ -14816,7 +14816,7 @@
     <row r="63" spans="2:10" ht="30.75">
       <c r="B63" s="49"/>
       <c r="C63" s="49"/>
-      <c r="D63" s="31"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="7" t="s">
         <v>127</v>
       </c>
@@ -14831,7 +14831,7 @@
     <row r="64" spans="2:10" ht="30.75">
       <c r="B64" s="49"/>
       <c r="C64" s="49"/>
-      <c r="D64" s="31"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="7" t="s">
         <v>128</v>
       </c>
@@ -14846,7 +14846,7 @@
     <row r="65" spans="2:10" ht="30.75">
       <c r="B65" s="49"/>
       <c r="C65" s="49"/>
-      <c r="D65" s="31"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="7" t="s">
         <v>129</v>
       </c>
@@ -14928,10 +14928,10 @@
       <c r="D70" s="49"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="24">
+      <c r="C71" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -14955,7 +14955,7 @@
     <row r="72" spans="2:10">
       <c r="B72" s="49"/>
       <c r="C72" s="49"/>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="30" t="s">
         <v>135</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -14972,7 +14972,7 @@
     <row r="73" spans="2:10">
       <c r="B73" s="49"/>
       <c r="C73" s="49"/>
-      <c r="D73" s="31"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="7" t="s">
         <v>137</v>
       </c>
@@ -14987,7 +14987,7 @@
     <row r="74" spans="2:10">
       <c r="B74" s="49"/>
       <c r="C74" s="49"/>
-      <c r="D74" s="31"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="7" t="s">
         <v>138</v>
       </c>
@@ -15002,7 +15002,7 @@
     <row r="75" spans="2:10">
       <c r="B75" s="49"/>
       <c r="C75" s="49"/>
-      <c r="D75" s="31"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="7" t="s">
         <v>139</v>
       </c>
@@ -15017,7 +15017,7 @@
     <row r="76" spans="2:10">
       <c r="B76" s="49"/>
       <c r="C76" s="49"/>
-      <c r="D76" s="31"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="7" t="s">
         <v>140</v>
       </c>
@@ -15115,15 +15115,30 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="J40:J48"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="J71:J81"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="C71:C82"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="J31:J38"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C60:C70"/>
+    <mergeCell ref="J60:J69"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J50:J58"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="D72:D76"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B8:B9"/>
@@ -15140,30 +15155,15 @@
     <mergeCell ref="B71:B82"/>
     <mergeCell ref="B40:B49"/>
     <mergeCell ref="B21:B30"/>
-    <mergeCell ref="C60:C70"/>
-    <mergeCell ref="J60:J69"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J50:J58"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="J21:J29"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J71:J81"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C50:C59"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="C71:C82"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="J31:J38"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="J40:J48"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D41:D44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15173,7 +15173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -15191,7 +15191,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>146</v>
       </c>
       <c r="D1" s="49"/>
@@ -15201,7 +15201,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="49"/>
@@ -15214,15 +15214,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>148</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -15256,7 +15256,7 @@
       <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="26" t="s">
@@ -15268,20 +15268,20 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
-      <c r="D9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
       <c r="G9" s="49"/>
@@ -15290,10 +15290,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>5</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -15318,7 +15318,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="30" t="s">
         <v>152</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -15335,7 +15335,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="7" t="s">
         <v>154</v>
       </c>
@@ -15350,7 +15350,7 @@
     <row r="13" spans="2:10" ht="30.75">
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="7" t="s">
         <v>155</v>
       </c>
@@ -15365,7 +15365,7 @@
     <row r="14" spans="2:10">
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="31"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="7" t="s">
         <v>156</v>
       </c>
@@ -15397,7 +15397,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -15414,7 +15414,7 @@
     <row r="17" spans="2:10" ht="24.75" customHeight="1">
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
-      <c r="D17" s="31"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="7" t="s">
         <v>159</v>
       </c>
@@ -15433,7 +15433,7 @@
     <row r="18" spans="2:10" ht="30.75">
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="31"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="7" t="s">
         <v>160</v>
       </c>
@@ -15452,13 +15452,13 @@
     <row r="19" spans="2:10">
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
-      <c r="D19" s="31"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="31">
         <v>15</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -15483,7 +15483,7 @@
     <row r="21" spans="2:10" ht="30.75">
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="30" t="s">
         <v>162</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -15500,7 +15500,7 @@
     <row r="22" spans="2:10" ht="30.75">
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="7" t="s">
         <v>164</v>
       </c>
@@ -15515,7 +15515,7 @@
     <row r="23" spans="2:10">
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
-      <c r="D23" s="31"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="7" t="s">
         <v>165</v>
       </c>
@@ -15530,7 +15530,7 @@
     <row r="24" spans="2:10">
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
-      <c r="D24" s="31"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="7" t="s">
         <v>166</v>
       </c>
@@ -15562,7 +15562,7 @@
     <row r="26" spans="2:10">
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -15583,7 +15583,7 @@
     <row r="27" spans="2:10" ht="30.75">
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
-      <c r="D27" s="31"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="7" t="s">
         <v>169</v>
       </c>
@@ -15598,7 +15598,7 @@
     <row r="28" spans="2:10">
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
-      <c r="D28" s="31"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="7" t="s">
         <v>170</v>
       </c>
@@ -15613,13 +15613,13 @@
     <row r="29" spans="2:10">
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
-      <c r="D29" s="31"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="31">
         <v>15</v>
       </c>
       <c r="D30" s="11" t="s">
@@ -15644,7 +15644,7 @@
     <row r="31" spans="2:10" ht="30.75">
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="30" t="s">
         <v>172</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -15661,7 +15661,7 @@
     <row r="32" spans="2:10">
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
-      <c r="D32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="7" t="s">
         <v>174</v>
       </c>
@@ -15676,7 +15676,7 @@
     <row r="33" spans="2:10" ht="30.75">
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
-      <c r="D33" s="31"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="7" t="s">
         <v>175</v>
       </c>
@@ -15691,7 +15691,7 @@
     <row r="34" spans="2:10" ht="30.75">
       <c r="B34" s="49"/>
       <c r="C34" s="49"/>
-      <c r="D34" s="31"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="7" t="s">
         <v>176</v>
       </c>
@@ -15723,7 +15723,7 @@
     <row r="36" spans="2:10">
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -15740,7 +15740,7 @@
     <row r="37" spans="2:10">
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
-      <c r="D37" s="31"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="7" t="s">
         <v>179</v>
       </c>
@@ -15755,7 +15755,7 @@
     <row r="38" spans="2:10" ht="30.75">
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
-      <c r="D38" s="31"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="7" t="s">
         <v>180</v>
       </c>
@@ -15774,13 +15774,13 @@
     <row r="39" spans="2:10">
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
-      <c r="D39" s="31"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="31">
         <v>20</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -15805,7 +15805,7 @@
     <row r="41" spans="2:10">
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="30" t="s">
         <v>182</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -15822,7 +15822,7 @@
     <row r="42" spans="2:10">
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
-      <c r="D42" s="31"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="7" t="s">
         <v>184</v>
       </c>
@@ -15837,7 +15837,7 @@
     <row r="43" spans="2:10" ht="30.75">
       <c r="B43" s="49"/>
       <c r="C43" s="49"/>
-      <c r="D43" s="31"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="7" t="s">
         <v>185</v>
       </c>
@@ -15852,7 +15852,7 @@
     <row r="44" spans="2:10">
       <c r="B44" s="49"/>
       <c r="C44" s="49"/>
-      <c r="D44" s="31"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="7" t="s">
         <v>186</v>
       </c>
@@ -15884,7 +15884,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="49"/>
       <c r="C46" s="49"/>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -15901,7 +15901,7 @@
     <row r="47" spans="2:10">
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
-      <c r="D47" s="31"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="7" t="s">
         <v>189</v>
       </c>
@@ -15916,7 +15916,7 @@
     <row r="48" spans="2:10">
       <c r="B48" s="49"/>
       <c r="C48" s="49"/>
-      <c r="D48" s="31"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="7" t="s">
         <v>190</v>
       </c>
@@ -15935,13 +15935,13 @@
     <row r="49" spans="2:10">
       <c r="B49" s="49"/>
       <c r="C49" s="49"/>
-      <c r="D49" s="31"/>
+      <c r="D49" s="32"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="31">
         <v>15</v>
       </c>
       <c r="D50" s="11" t="s">
@@ -15966,7 +15966,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="49"/>
       <c r="C51" s="49"/>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="30" t="s">
         <v>182</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -15983,7 +15983,7 @@
     <row r="52" spans="2:10">
       <c r="B52" s="49"/>
       <c r="C52" s="49"/>
-      <c r="D52" s="31"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="7" t="s">
         <v>193</v>
       </c>
@@ -15998,7 +15998,7 @@
     <row r="53" spans="2:10">
       <c r="B53" s="49"/>
       <c r="C53" s="49"/>
-      <c r="D53" s="31"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="7" t="s">
         <v>194</v>
       </c>
@@ -16013,7 +16013,7 @@
     <row r="54" spans="2:10">
       <c r="B54" s="49"/>
       <c r="C54" s="49"/>
-      <c r="D54" s="31"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="7" t="s">
         <v>195</v>
       </c>
@@ -16045,7 +16045,7 @@
     <row r="56" spans="2:10">
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -16062,7 +16062,7 @@
     <row r="57" spans="2:10">
       <c r="B57" s="49"/>
       <c r="C57" s="49"/>
-      <c r="D57" s="31"/>
+      <c r="D57" s="32"/>
       <c r="E57" s="7" t="s">
         <v>198</v>
       </c>
@@ -16081,13 +16081,13 @@
     <row r="58" spans="2:10">
       <c r="B58" s="49"/>
       <c r="C58" s="49"/>
-      <c r="D58" s="31"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="31">
         <v>15</v>
       </c>
       <c r="D59" s="11" t="s">
@@ -16112,7 +16112,7 @@
     <row r="60" spans="2:10">
       <c r="B60" s="49"/>
       <c r="C60" s="49"/>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="30" t="s">
         <v>200</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -16129,7 +16129,7 @@
     <row r="61" spans="2:10">
       <c r="B61" s="49"/>
       <c r="C61" s="49"/>
-      <c r="D61" s="31"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="7" t="s">
         <v>202</v>
       </c>
@@ -16144,7 +16144,7 @@
     <row r="62" spans="2:10">
       <c r="B62" s="49"/>
       <c r="C62" s="49"/>
-      <c r="D62" s="31"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="7" t="s">
         <v>203</v>
       </c>
@@ -16159,7 +16159,7 @@
     <row r="63" spans="2:10">
       <c r="B63" s="49"/>
       <c r="C63" s="49"/>
-      <c r="D63" s="31"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="7" t="s">
         <v>204</v>
       </c>
@@ -16191,7 +16191,7 @@
     <row r="65" spans="2:10">
       <c r="B65" s="49"/>
       <c r="C65" s="49"/>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -16208,7 +16208,7 @@
     <row r="66" spans="2:10">
       <c r="B66" s="49"/>
       <c r="C66" s="49"/>
-      <c r="D66" s="31"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="7" t="s">
         <v>207</v>
       </c>
@@ -16223,7 +16223,7 @@
     <row r="67" spans="2:10">
       <c r="B67" s="49"/>
       <c r="C67" s="49"/>
-      <c r="D67" s="31"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="7" t="s">
         <v>208</v>
       </c>
@@ -16242,13 +16242,13 @@
     <row r="68" spans="2:10">
       <c r="B68" s="49"/>
       <c r="C68" s="49"/>
-      <c r="D68" s="31"/>
+      <c r="D68" s="32"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C69" s="24">
+      <c r="C69" s="31">
         <v>10</v>
       </c>
       <c r="D69" s="11" t="s">
@@ -16273,7 +16273,7 @@
     <row r="70" spans="2:10">
       <c r="B70" s="49"/>
       <c r="C70" s="49"/>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="30" t="s">
         <v>210</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -16290,7 +16290,7 @@
     <row r="71" spans="2:10">
       <c r="B71" s="49"/>
       <c r="C71" s="49"/>
-      <c r="D71" s="31"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="7" t="s">
         <v>212</v>
       </c>
@@ -16305,7 +16305,7 @@
     <row r="72" spans="2:10">
       <c r="B72" s="49"/>
       <c r="C72" s="49"/>
-      <c r="D72" s="31"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="7" t="s">
         <v>213</v>
       </c>
@@ -16320,7 +16320,7 @@
     <row r="73" spans="2:10">
       <c r="B73" s="49"/>
       <c r="C73" s="49"/>
-      <c r="D73" s="31"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="7" t="s">
         <v>214</v>
       </c>
@@ -16356,7 +16356,7 @@
     <row r="75" spans="2:10">
       <c r="B75" s="49"/>
       <c r="C75" s="49"/>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -16373,7 +16373,7 @@
     <row r="76" spans="2:10">
       <c r="B76" s="49"/>
       <c r="C76" s="49"/>
-      <c r="D76" s="31"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="7" t="s">
         <v>217</v>
       </c>
@@ -16388,7 +16388,7 @@
     <row r="77" spans="2:10">
       <c r="B77" s="49"/>
       <c r="C77" s="49"/>
-      <c r="D77" s="31"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="7" t="s">
         <v>218</v>
       </c>
@@ -16403,13 +16403,13 @@
     <row r="78" spans="2:10">
       <c r="B78" s="49"/>
       <c r="C78" s="49"/>
-      <c r="D78" s="31"/>
+      <c r="D78" s="32"/>
     </row>
     <row r="79" spans="2:10">
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="31">
         <v>5</v>
       </c>
       <c r="D79" s="11" t="s">
@@ -16434,7 +16434,7 @@
     <row r="80" spans="2:10">
       <c r="B80" s="49"/>
       <c r="C80" s="49"/>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="30" t="s">
         <v>220</v>
       </c>
       <c r="E80" s="7" t="s">
@@ -16455,7 +16455,7 @@
     <row r="81" spans="2:10">
       <c r="B81" s="49"/>
       <c r="C81" s="49"/>
-      <c r="D81" s="31"/>
+      <c r="D81" s="32"/>
       <c r="E81" s="7" t="s">
         <v>222</v>
       </c>
@@ -16474,7 +16474,7 @@
     <row r="82" spans="2:10">
       <c r="B82" s="49"/>
       <c r="C82" s="49"/>
-      <c r="D82" s="31"/>
+      <c r="D82" s="32"/>
       <c r="E82" s="7" t="s">
         <v>223</v>
       </c>
@@ -16489,7 +16489,7 @@
     <row r="83" spans="2:10">
       <c r="B83" s="49"/>
       <c r="C83" s="49"/>
-      <c r="D83" s="31"/>
+      <c r="D83" s="32"/>
       <c r="E83" s="7" t="s">
         <v>224</v>
       </c>
@@ -16525,7 +16525,7 @@
     <row r="85" spans="2:10">
       <c r="B85" s="49"/>
       <c r="C85" s="49"/>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E85" s="7" t="s">
@@ -16542,7 +16542,7 @@
     <row r="86" spans="2:10" ht="30.75">
       <c r="B86" s="49"/>
       <c r="C86" s="49"/>
-      <c r="D86" s="31"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="7" t="s">
         <v>227</v>
       </c>
@@ -16557,7 +16557,7 @@
     <row r="87" spans="2:10">
       <c r="B87" s="49"/>
       <c r="C87" s="49"/>
-      <c r="D87" s="31"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="7" t="s">
         <v>228</v>
       </c>
@@ -16572,10 +16572,48 @@
     <row r="88" spans="2:10">
       <c r="B88" s="49"/>
       <c r="C88" s="49"/>
-      <c r="D88" s="31"/>
+      <c r="D88" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="J69:J77"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="J59:J67"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C79:C88"/>
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="C20:C29"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="J20:J28"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="J30:J38"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="J79:J87"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="J50:J57"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="B40:B49"/>
     <mergeCell ref="D85:D88"/>
     <mergeCell ref="C1:E1"/>
@@ -16592,44 +16630,6 @@
     <mergeCell ref="C69:C78"/>
     <mergeCell ref="C50:C58"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="J20:J28"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="J30:J38"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="B59:B68"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="J79:J87"/>
-    <mergeCell ref="B69:B78"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="J50:J57"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C79:C88"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C20:C29"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J69:J77"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="J59:J67"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16639,8 +16639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -16656,21 +16656,21 @@
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="18">
       <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
@@ -16679,15 +16679,15 @@
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="39" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="37" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -16695,20 +16695,20 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="F4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="F4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.25">
       <c r="F5" s="16">
-        <f>SUM(F8:F200)/2</f>
-        <v>66.5</v>
+        <f>SUM(F8:F200)</f>
+        <v>68</v>
       </c>
       <c r="I5" s="17">
         <f>SUM(I8:I200)/2</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>233</v>
@@ -16739,7 +16739,7 @@
       <c r="I8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16755,10 +16755,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>20</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -16767,21 +16767,19 @@
       <c r="E10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="48">
-        <v>27</v>
-      </c>
-      <c r="G10" s="48">
+      <c r="F10" s="23">
+        <v>11</v>
+      </c>
+      <c r="G10" s="23">
         <f>SUM(G11:G18)</f>
         <v>100</v>
       </c>
-      <c r="I10" s="48">
-        <v>3</v>
-      </c>
+      <c r="I10" s="23"/>
       <c r="J10" s="49"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="25"/>
       <c r="E11" s="7" t="s">
         <v>235</v>
@@ -16795,9 +16793,9 @@
       <c r="J11" s="49"/>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="7" t="s">
         <v>236</v>
       </c>
@@ -16810,9 +16808,9 @@
       <c r="J12" s="49"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="7" t="s">
         <v>237</v>
       </c>
@@ -16825,9 +16823,9 @@
       <c r="J13" s="49"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="7" t="s">
         <v>238</v>
       </c>
@@ -16840,8 +16838,8 @@
       <c r="J14" s="49"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="18" t="s">
         <v>9</v>
       </c>
@@ -16857,8 +16855,8 @@
       <c r="J15" s="49"/>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="25"/>
       <c r="E16" s="7" t="s">
         <v>240</v>
@@ -16872,9 +16870,9 @@
       <c r="J16" s="49"/>
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="7" t="s">
         <v>241</v>
       </c>
@@ -16887,9 +16885,9 @@
       <c r="J17" s="49"/>
     </row>
     <row r="18" spans="2:10" ht="30" customHeight="1">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="7" t="s">
         <v>242</v>
       </c>
@@ -16902,15 +16900,15 @@
       <c r="J18" s="49"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="31">
         <v>20</v>
       </c>
       <c r="D20" s="18" t="s">
@@ -16919,21 +16917,21 @@
       <c r="E20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="48">
-        <v>27</v>
-      </c>
-      <c r="G20" s="48">
+      <c r="F20" s="23">
+        <v>18</v>
+      </c>
+      <c r="G20" s="23">
         <f>SUM(G21:G30)</f>
         <v>100</v>
       </c>
-      <c r="I20" s="48">
-        <v>3</v>
+      <c r="I20" s="23">
+        <v>4</v>
       </c>
       <c r="J20" s="49"/>
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="25"/>
       <c r="E21" s="7" t="s">
         <v>244</v>
@@ -16947,9 +16945,9 @@
       <c r="J21" s="49"/>
     </row>
     <row r="22" spans="2:10" ht="30" customHeight="1">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="7" t="s">
         <v>245</v>
       </c>
@@ -16962,9 +16960,9 @@
       <c r="J22" s="49"/>
     </row>
     <row r="23" spans="2:10" ht="30" customHeight="1">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="7" t="s">
         <v>246</v>
       </c>
@@ -16977,9 +16975,9 @@
       <c r="J23" s="49"/>
     </row>
     <row r="24" spans="2:10" ht="30" customHeight="1">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="7" t="s">
         <v>247</v>
       </c>
@@ -16992,9 +16990,9 @@
       <c r="J24" s="49"/>
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="7" t="s">
         <v>248</v>
       </c>
@@ -17004,11 +17002,14 @@
       <c r="G25" s="8">
         <v>10</v>
       </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
       <c r="J25" s="49"/>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="18" t="s">
         <v>9</v>
       </c>
@@ -17024,8 +17025,8 @@
       <c r="J26" s="49"/>
     </row>
     <row r="27" spans="2:10" ht="30" customHeight="1">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="25"/>
       <c r="E27" s="7" t="s">
         <v>250</v>
@@ -17039,9 +17040,9 @@
       <c r="J27" s="49"/>
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="7" t="s">
         <v>251</v>
       </c>
@@ -17054,9 +17055,9 @@
       <c r="J28" s="49"/>
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="7" t="s">
         <v>252</v>
       </c>
@@ -17069,9 +17070,9 @@
       <c r="J29" s="49"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="7" t="s">
         <v>253</v>
       </c>
@@ -17084,15 +17085,15 @@
       <c r="J30" s="49"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="31">
         <v>20</v>
       </c>
       <c r="D32" s="18" t="s">
@@ -17101,21 +17102,19 @@
       <c r="E32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="48">
-        <v>27</v>
-      </c>
-      <c r="G32" s="48">
+      <c r="F32" s="23">
+        <v>11</v>
+      </c>
+      <c r="G32" s="23">
         <f>SUM(G33:G43)</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="I32" s="48">
-        <v>3</v>
-      </c>
+      <c r="I32" s="23"/>
       <c r="J32" s="49"/>
     </row>
     <row r="33" spans="2:10" ht="30" customHeight="1">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="25"/>
       <c r="E33" s="7" t="s">
         <v>255</v>
@@ -17129,9 +17128,9 @@
       <c r="J33" s="49"/>
     </row>
     <row r="34" spans="2:10" ht="30" customHeight="1">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="7" t="s">
         <v>256</v>
       </c>
@@ -17144,9 +17143,9 @@
       <c r="J34" s="49"/>
     </row>
     <row r="35" spans="2:10" ht="30" customHeight="1">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="7" t="s">
         <v>257</v>
       </c>
@@ -17159,9 +17158,9 @@
       <c r="J35" s="49"/>
     </row>
     <row r="36" spans="2:10" ht="30" customHeight="1">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="7" t="s">
         <v>258</v>
       </c>
@@ -17177,9 +17176,9 @@
       <c r="J36" s="49"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="7" t="s">
         <v>260</v>
       </c>
@@ -17192,9 +17191,9 @@
       <c r="J37" s="49"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="7" t="s">
         <v>261</v>
       </c>
@@ -17207,8 +17206,8 @@
       <c r="J38" s="49"/>
     </row>
     <row r="39" spans="2:10" ht="30" customHeight="1">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="18" t="s">
         <v>9</v>
       </c>
@@ -17224,8 +17223,8 @@
       <c r="J39" s="49"/>
     </row>
     <row r="40" spans="2:10" ht="30" customHeight="1">
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="25"/>
       <c r="E40" s="7" t="s">
         <v>263</v>
@@ -17242,9 +17241,9 @@
       <c r="J40" s="49"/>
     </row>
     <row r="41" spans="2:10" ht="30" customHeight="1">
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="7" t="s">
         <v>264</v>
       </c>
@@ -17257,9 +17256,9 @@
       <c r="J41" s="49"/>
     </row>
     <row r="42" spans="2:10" ht="30" customHeight="1">
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="7" t="s">
         <v>265</v>
       </c>
@@ -17272,9 +17271,9 @@
       <c r="J42" s="49"/>
     </row>
     <row r="43" spans="2:10" ht="30" customHeight="1">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="7" t="s">
         <v>266</v>
       </c>
@@ -17287,15 +17286,15 @@
       <c r="J43" s="49"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="31">
         <v>20</v>
       </c>
       <c r="D45" s="18" t="s">
@@ -17304,21 +17303,19 @@
       <c r="E45" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="48">
-        <v>26</v>
-      </c>
-      <c r="G45" s="48">
+      <c r="F45" s="23">
+        <v>11</v>
+      </c>
+      <c r="G45" s="23">
         <f>SUM(G46:G53)</f>
         <v>100</v>
       </c>
-      <c r="I45" s="48">
-        <v>3</v>
-      </c>
+      <c r="I45" s="23"/>
       <c r="J45" s="49"/>
     </row>
     <row r="46" spans="2:10" ht="30" customHeight="1">
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="25"/>
       <c r="E46" s="7" t="s">
         <v>268</v>
@@ -17332,9 +17329,9 @@
       <c r="J46" s="49"/>
     </row>
     <row r="47" spans="2:10" ht="30" customHeight="1">
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="7" t="s">
         <v>269</v>
       </c>
@@ -17347,9 +17344,9 @@
       <c r="J47" s="49"/>
     </row>
     <row r="48" spans="2:10" ht="30" customHeight="1">
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="7" t="s">
         <v>270</v>
       </c>
@@ -17362,9 +17359,9 @@
       <c r="J48" s="49"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="7" t="s">
         <v>271</v>
       </c>
@@ -17377,8 +17374,8 @@
       <c r="J49" s="49"/>
     </row>
     <row r="50" spans="2:10" ht="30" customHeight="1">
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="18" t="s">
         <v>9</v>
       </c>
@@ -17394,8 +17391,8 @@
       <c r="J50" s="49"/>
     </row>
     <row r="51" spans="2:10" ht="30" customHeight="1">
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="25"/>
       <c r="E51" s="7" t="s">
         <v>273</v>
@@ -17412,9 +17409,9 @@
       <c r="J51" s="49"/>
     </row>
     <row r="52" spans="2:10" ht="30" customHeight="1">
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="7" t="s">
         <v>274</v>
       </c>
@@ -17427,9 +17424,9 @@
       <c r="J52" s="49"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="7" t="s">
         <v>275</v>
       </c>
@@ -17442,15 +17439,15 @@
       <c r="J53" s="49"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1">
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="31">
         <v>20</v>
       </c>
       <c r="D55" s="18" t="s">
@@ -17459,21 +17456,21 @@
       <c r="E55" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="48">
-        <v>26</v>
-      </c>
-      <c r="G55" s="48">
+      <c r="F55" s="23">
+        <v>17</v>
+      </c>
+      <c r="G55" s="23">
         <f>SUM(G56:G61)</f>
         <v>100.0000000000002</v>
       </c>
-      <c r="I55" s="48">
-        <v>3</v>
+      <c r="I55" s="23">
+        <v>6</v>
       </c>
       <c r="J55" s="49"/>
     </row>
     <row r="56" spans="2:10" ht="30" customHeight="1">
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="25"/>
       <c r="E56" s="7" t="s">
         <v>277</v>
@@ -17487,9 +17484,9 @@
       <c r="J56" s="49"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="7" t="s">
         <v>278</v>
       </c>
@@ -17502,9 +17499,9 @@
       <c r="J57" s="49"/>
     </row>
     <row r="58" spans="2:10" ht="30" customHeight="1">
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="7" t="s">
         <v>279</v>
       </c>
@@ -17517,8 +17514,8 @@
       <c r="J58" s="49"/>
     </row>
     <row r="59" spans="2:10" ht="30" customHeight="1">
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="18" t="s">
         <v>9</v>
       </c>
@@ -17531,11 +17528,14 @@
       <c r="G59" s="8">
         <v>16.6666666666667</v>
       </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
       <c r="J59" s="49"/>
     </row>
     <row r="60" spans="2:10" ht="30" customHeight="1">
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="25"/>
       <c r="E60" s="7" t="s">
         <v>281</v>
@@ -17549,9 +17549,9 @@
       <c r="J60" s="49"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="7" t="s">
         <v>282</v>
       </c>
@@ -17564,12 +17564,35 @@
       <c r="J61" s="49"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="J55:J61"/>
+    <mergeCell ref="J32:J43"/>
+    <mergeCell ref="J45:J53"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="C32:C44"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="J20:J30"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D56:D58"/>
     <mergeCell ref="B55:B62"/>
@@ -17586,29 +17609,6 @@
     <mergeCell ref="B32:B44"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="J20:J30"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J55:J61"/>
-    <mergeCell ref="J32:J43"/>
-    <mergeCell ref="J45:J53"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="C32:C44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17635,7 +17635,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>283</v>
       </c>
       <c r="D1" s="49"/>
@@ -17645,7 +17645,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>284</v>
       </c>
       <c r="D2" s="49"/>
@@ -17658,15 +17658,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>285</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -17712,13 +17712,13 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17734,10 +17734,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>16.666666666666671</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -17858,10 +17858,10 @@
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="31">
         <v>16.666666666666671</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -17967,10 +17967,10 @@
       <c r="D24" s="49"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="31">
         <v>16.666666666666671</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -18055,10 +18055,10 @@
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="31">
         <v>16.666666666666671</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -18197,10 +18197,10 @@
       <c r="D37" s="49"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="31">
         <v>16.666666666666671</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -18369,10 +18369,10 @@
       <c r="D48" s="49"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="31">
         <v>16.666666666666671</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -18494,18 +18494,22 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="J30:J36"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="D29"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="J38:J47"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="J49:J54"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="C38:C48"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="J18:J23"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C25:C29"/>
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="D35:D37"/>
@@ -18522,22 +18526,18 @@
     <mergeCell ref="B30:B37"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="J38:J47"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="J49:J54"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="C38:C48"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="J18:J23"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="D29"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="J30:J36"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J8:J9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18564,21 +18564,21 @@
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="2:10" ht="18">
       <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
@@ -18587,15 +18587,15 @@
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="35" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -18604,8 +18604,8 @@
     </row>
     <row r="4" spans="2:10">
       <c r="E4" s="21"/>
-      <c r="F4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="F4" s="41"/>
+      <c r="I4" s="41"/>
       <c r="J4" t="s">
         <v>9</v>
       </c>
@@ -18665,10 +18665,10 @@
       <c r="J9" s="34"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>16.6666666666667</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -18690,13 +18690,13 @@
         <f>SUM(I11:I19)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="40" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="45" customHeight="1">
-      <c r="B11" s="32"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="25"/>
       <c r="E11" s="7" t="s">
         <v>328</v>
@@ -18713,12 +18713,12 @@
       <c r="I11" s="14">
         <v>1</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1">
-      <c r="B12" s="32"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="7" t="s">
         <v>329</v>
       </c>
@@ -18734,12 +18734,12 @@
       <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="2:10" ht="45" customHeight="1">
-      <c r="B13" s="32"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="7" t="s">
         <v>330</v>
       </c>
@@ -18755,12 +18755,12 @@
       <c r="I13" s="14">
         <v>0</v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="32"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="7" t="s">
         <v>331</v>
       </c>
@@ -18776,12 +18776,12 @@
       <c r="I14" s="14">
         <v>0</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1">
-      <c r="B15" s="32"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="7" t="s">
         <v>332</v>
       </c>
@@ -18797,11 +18797,11 @@
       <c r="I15" s="14">
         <v>0</v>
       </c>
-      <c r="J15" s="33"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="2:10" ht="75" customHeight="1">
-      <c r="B16" s="32"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="18" t="s">
         <v>9</v>
       </c>
@@ -18820,11 +18820,11 @@
       <c r="I16" s="14">
         <v>0</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="2:10" ht="45" customHeight="1">
-      <c r="B17" s="32"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="25"/>
       <c r="E17" s="7" t="s">
         <v>334</v>
@@ -18841,12 +18841,12 @@
       <c r="I17" s="14">
         <v>0</v>
       </c>
-      <c r="J17" s="33"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="2:10" ht="45" customHeight="1">
-      <c r="B18" s="32"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="7" t="s">
         <v>335</v>
       </c>
@@ -18862,12 +18862,12 @@
       <c r="I18" s="14">
         <v>0</v>
       </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="2:10" ht="30.75">
-      <c r="B19" s="32"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="7" t="s">
         <v>336</v>
       </c>
@@ -18883,12 +18883,12 @@
       <c r="I19" s="14">
         <v>0</v>
       </c>
-      <c r="J19" s="33"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1">
-      <c r="B20" s="32"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="10"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -18896,10 +18896,10 @@
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:10" ht="60" customHeight="1">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="31">
         <v>16.6666666666667</v>
       </c>
       <c r="D21" s="18" t="s">
@@ -18921,13 +18921,13 @@
         <f>SUM(I22:I24)</f>
         <v>3</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="40" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="45" customHeight="1">
-      <c r="B22" s="32"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="25"/>
       <c r="E22" s="7" t="s">
         <v>339</v>
@@ -18944,12 +18944,12 @@
       <c r="I22" s="14">
         <v>1</v>
       </c>
-      <c r="J22" s="33"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="2:10" ht="30" customHeight="1">
-      <c r="B23" s="32"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="7" t="s">
         <v>341</v>
       </c>
@@ -18965,11 +18965,11 @@
       <c r="I23" s="14">
         <v>1</v>
       </c>
-      <c r="J23" s="33"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="2:10" ht="30" customHeight="1">
-      <c r="B24" s="32"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="18" t="s">
         <v>9</v>
       </c>
@@ -18988,11 +18988,11 @@
       <c r="I24" s="14">
         <v>1</v>
       </c>
-      <c r="J24" s="33"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="32"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="14"/>
       <c r="E25" s="10"/>
       <c r="F25" s="14"/>
@@ -19001,10 +19001,10 @@
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="31">
         <v>16.6666666666667</v>
       </c>
       <c r="D26" s="18" t="s">
@@ -19026,13 +19026,13 @@
         <f>SUM(I27:I33)</f>
         <v>3</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="40" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="45" customHeight="1">
-      <c r="B27" s="32"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="25"/>
       <c r="E27" s="7" t="s">
         <v>345</v>
@@ -19049,12 +19049,12 @@
       <c r="I27" s="14">
         <v>1</v>
       </c>
-      <c r="J27" s="33"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1">
-      <c r="B28" s="32"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="7" t="s">
         <v>346</v>
       </c>
@@ -19070,12 +19070,12 @@
       <c r="I28" s="14">
         <v>1</v>
       </c>
-      <c r="J28" s="33"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1">
-      <c r="B29" s="32"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="7" t="s">
         <v>347</v>
       </c>
@@ -19091,12 +19091,12 @@
       <c r="I29" s="14">
         <v>1</v>
       </c>
-      <c r="J29" s="33"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="32"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="7" t="s">
         <v>348</v>
       </c>
@@ -19112,11 +19112,11 @@
       <c r="I30" s="14">
         <v>0</v>
       </c>
-      <c r="J30" s="33"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="2:10" ht="30" customHeight="1">
-      <c r="B31" s="32"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="18" t="s">
         <v>9</v>
       </c>
@@ -19135,11 +19135,11 @@
       <c r="I31" s="14">
         <v>0</v>
       </c>
-      <c r="J31" s="33"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="2:10" ht="30" customHeight="1">
-      <c r="B32" s="32"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="25"/>
       <c r="E32" s="7" t="s">
         <v>350</v>
@@ -19156,12 +19156,12 @@
       <c r="I32" s="14">
         <v>0</v>
       </c>
-      <c r="J32" s="33"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="2:10" ht="30" customHeight="1">
-      <c r="B33" s="32"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="7" t="s">
         <v>351</v>
       </c>
@@ -19177,12 +19177,12 @@
       <c r="I33" s="14">
         <v>0</v>
       </c>
-      <c r="J33" s="33"/>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="32"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="10"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -19190,10 +19190,10 @@
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="31">
         <v>16.6666666666667</v>
       </c>
       <c r="D35" s="18" t="s">
@@ -19215,13 +19215,13 @@
         <f>SUM(I36:I46)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="33" t="s">
+      <c r="J35" s="40" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="30" customHeight="1">
-      <c r="B36" s="32"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="25"/>
       <c r="E36" s="7" t="s">
         <v>354</v>
@@ -19238,12 +19238,12 @@
       <c r="I36" s="14">
         <v>0</v>
       </c>
-      <c r="J36" s="33"/>
+      <c r="J36" s="40"/>
     </row>
     <row r="37" spans="2:10" ht="30" customHeight="1">
-      <c r="B37" s="32"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="7" t="s">
         <v>355</v>
       </c>
@@ -19259,12 +19259,12 @@
       <c r="I37" s="14">
         <v>0</v>
       </c>
-      <c r="J37" s="33"/>
+      <c r="J37" s="40"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="32"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="7" t="s">
         <v>356</v>
       </c>
@@ -19280,12 +19280,12 @@
       <c r="I38" s="14">
         <v>0</v>
       </c>
-      <c r="J38" s="33"/>
+      <c r="J38" s="40"/>
     </row>
     <row r="39" spans="2:10" ht="30" customHeight="1">
-      <c r="B39" s="32"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="7" t="s">
         <v>357</v>
       </c>
@@ -19301,12 +19301,12 @@
       <c r="I39" s="14">
         <v>0</v>
       </c>
-      <c r="J39" s="33"/>
+      <c r="J39" s="40"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="32"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="7" t="s">
         <v>358</v>
       </c>
@@ -19322,12 +19322,12 @@
       <c r="I40" s="14">
         <v>0</v>
       </c>
-      <c r="J40" s="33"/>
+      <c r="J40" s="40"/>
     </row>
     <row r="41" spans="2:10" ht="30" customHeight="1">
-      <c r="B41" s="32"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="7" t="s">
         <v>359</v>
       </c>
@@ -19343,11 +19343,11 @@
       <c r="I41" s="14">
         <v>0</v>
       </c>
-      <c r="J41" s="33"/>
+      <c r="J41" s="40"/>
     </row>
     <row r="42" spans="2:10" ht="30" customHeight="1">
-      <c r="B42" s="32"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="18" t="s">
         <v>9</v>
       </c>
@@ -19366,11 +19366,11 @@
       <c r="I42" s="14">
         <v>1</v>
       </c>
-      <c r="J42" s="33"/>
+      <c r="J42" s="40"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="32"/>
-      <c r="C43" s="23"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="25"/>
       <c r="E43" s="7" t="s">
         <v>361</v>
@@ -19387,12 +19387,12 @@
       <c r="I43" s="14">
         <v>0</v>
       </c>
-      <c r="J43" s="33"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="2:10" ht="30" customHeight="1">
-      <c r="B44" s="32"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="7" t="s">
         <v>362</v>
       </c>
@@ -19408,12 +19408,12 @@
       <c r="I44" s="14">
         <v>0</v>
       </c>
-      <c r="J44" s="33"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="2:10" ht="30" customHeight="1">
-      <c r="B45" s="32"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="7" t="s">
         <v>363</v>
       </c>
@@ -19429,12 +19429,12 @@
       <c r="I45" s="14">
         <v>0</v>
       </c>
-      <c r="J45" s="33"/>
+      <c r="J45" s="40"/>
     </row>
     <row r="46" spans="2:10" ht="30" customHeight="1">
-      <c r="B46" s="32"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="7" t="s">
         <v>364</v>
       </c>
@@ -19450,12 +19450,12 @@
       <c r="I46" s="14">
         <v>0</v>
       </c>
-      <c r="J46" s="33"/>
+      <c r="J46" s="40"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="32"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="10"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
@@ -19463,10 +19463,10 @@
       <c r="I47" s="14"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="31">
         <v>16.6666666666667</v>
       </c>
       <c r="D48" s="18" t="s">
@@ -19488,13 +19488,13 @@
         <f>SUM(I49:I57)</f>
         <v>2</v>
       </c>
-      <c r="J48" s="33" t="s">
+      <c r="J48" s="40" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="30" customHeight="1">
-      <c r="B49" s="32"/>
-      <c r="C49" s="23"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="25"/>
       <c r="E49" s="7" t="s">
         <v>367</v>
@@ -19511,12 +19511,12 @@
       <c r="I49" s="14">
         <v>0</v>
       </c>
-      <c r="J49" s="33"/>
+      <c r="J49" s="40"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="32"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="7" t="s">
         <v>368</v>
       </c>
@@ -19532,12 +19532,12 @@
       <c r="I50" s="14">
         <v>0</v>
       </c>
-      <c r="J50" s="33"/>
+      <c r="J50" s="40"/>
     </row>
     <row r="51" spans="2:10" ht="30" customHeight="1">
-      <c r="B51" s="32"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
       <c r="E51" s="7" t="s">
         <v>369</v>
       </c>
@@ -19553,12 +19553,12 @@
       <c r="I51" s="14">
         <v>0</v>
       </c>
-      <c r="J51" s="33"/>
+      <c r="J51" s="40"/>
     </row>
     <row r="52" spans="2:10" ht="30" customHeight="1">
-      <c r="B52" s="32"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="7" t="s">
         <v>370</v>
       </c>
@@ -19574,12 +19574,12 @@
       <c r="I52" s="14">
         <v>0</v>
       </c>
-      <c r="J52" s="33"/>
+      <c r="J52" s="40"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="32"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="7" t="s">
         <v>371</v>
       </c>
@@ -19595,11 +19595,11 @@
       <c r="I53" s="14">
         <v>0</v>
       </c>
-      <c r="J53" s="33"/>
+      <c r="J53" s="40"/>
     </row>
     <row r="54" spans="2:10" ht="30" customHeight="1">
-      <c r="B54" s="32"/>
-      <c r="C54" s="23"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="18" t="s">
         <v>9</v>
       </c>
@@ -19618,11 +19618,11 @@
       <c r="I54" s="14">
         <v>0</v>
       </c>
-      <c r="J54" s="33"/>
+      <c r="J54" s="40"/>
     </row>
     <row r="55" spans="2:10" ht="30" customHeight="1">
-      <c r="B55" s="32"/>
-      <c r="C55" s="23"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="25"/>
       <c r="E55" s="7" t="s">
         <v>373</v>
@@ -19639,12 +19639,12 @@
       <c r="I55" s="14">
         <v>1</v>
       </c>
-      <c r="J55" s="33"/>
+      <c r="J55" s="40"/>
     </row>
     <row r="56" spans="2:10" ht="30" customHeight="1">
-      <c r="B56" s="32"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="7" t="s">
         <v>374</v>
       </c>
@@ -19660,12 +19660,12 @@
       <c r="I56" s="14">
         <v>1</v>
       </c>
-      <c r="J56" s="33"/>
+      <c r="J56" s="40"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="32"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="7" t="s">
         <v>375</v>
       </c>
@@ -19681,12 +19681,12 @@
       <c r="I57" s="14">
         <v>0</v>
       </c>
-      <c r="J57" s="33"/>
+      <c r="J57" s="40"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="32"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="10"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
@@ -19694,10 +19694,10 @@
       <c r="I58" s="14"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="42" t="s">
         <v>376</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="31">
         <v>16.6666666666667</v>
       </c>
       <c r="D59" s="18" t="s">
@@ -19719,13 +19719,13 @@
         <f>SUM(I60:I66)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="33" t="s">
+      <c r="J59" s="40" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="30.75">
-      <c r="B60" s="32"/>
-      <c r="C60" s="23"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="25"/>
       <c r="E60" s="7" t="s">
         <v>378</v>
@@ -19742,12 +19742,12 @@
       <c r="I60" s="14">
         <v>0</v>
       </c>
-      <c r="J60" s="33"/>
+      <c r="J60" s="40"/>
     </row>
     <row r="61" spans="2:10" ht="45.75">
-      <c r="B61" s="32"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="7" t="s">
         <v>379</v>
       </c>
@@ -19763,12 +19763,12 @@
       <c r="I61" s="14">
         <v>0</v>
       </c>
-      <c r="J61" s="33"/>
+      <c r="J61" s="40"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="32"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="7" t="s">
         <v>380</v>
       </c>
@@ -19784,12 +19784,12 @@
       <c r="I62" s="14">
         <v>0</v>
       </c>
-      <c r="J62" s="33"/>
+      <c r="J62" s="40"/>
     </row>
     <row r="63" spans="2:10" ht="45.75">
-      <c r="B63" s="32"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="7" t="s">
         <v>381</v>
       </c>
@@ -19805,11 +19805,11 @@
       <c r="I63" s="14">
         <v>0</v>
       </c>
-      <c r="J63" s="33"/>
+      <c r="J63" s="40"/>
     </row>
     <row r="64" spans="2:10" ht="45.75">
-      <c r="B64" s="32"/>
-      <c r="C64" s="23"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="18" t="s">
         <v>9</v>
       </c>
@@ -19828,11 +19828,11 @@
       <c r="I64" s="14">
         <v>0</v>
       </c>
-      <c r="J64" s="33"/>
+      <c r="J64" s="40"/>
     </row>
     <row r="65" spans="2:10" ht="45.75">
-      <c r="B65" s="32"/>
-      <c r="C65" s="23"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="25"/>
       <c r="E65" s="7" t="s">
         <v>383</v>
@@ -19849,12 +19849,12 @@
       <c r="I65" s="14">
         <v>0</v>
       </c>
-      <c r="J65" s="33"/>
+      <c r="J65" s="40"/>
     </row>
     <row r="66" spans="2:10" ht="30.75">
-      <c r="B66" s="32"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="7" t="s">
         <v>384</v>
       </c>
@@ -19870,38 +19870,21 @@
       <c r="I66" s="14">
         <v>0</v>
       </c>
-      <c r="J66" s="33"/>
+      <c r="J66" s="40"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="32"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J35:J46"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B48:B58"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B35:B47"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="C35:C47"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="J59:J66"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D65:D67"/>
     <mergeCell ref="J48:J57"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="I3:I4"/>
@@ -19918,11 +19901,28 @@
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="J59:J66"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B48:B58"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B35:B47"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="C35:C47"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J35:J46"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="J21:J24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19949,21 +19949,21 @@
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="2:10" ht="18">
       <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
@@ -19972,15 +19972,15 @@
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="43" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="37" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -19988,8 +19988,8 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="F4" s="43"/>
-      <c r="I4" s="39"/>
+      <c r="F4" s="44"/>
+      <c r="I4" s="37"/>
       <c r="J4" t="s">
         <v>9</v>
       </c>
@@ -20025,16 +20025,16 @@
       <c r="E8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="36" t="s">
@@ -20046,17 +20046,17 @@
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="34"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>16.6666666666667</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -20077,13 +20077,13 @@
         <f>SUM(I11:I14)</f>
         <v>10</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="40" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1">
-      <c r="B11" s="32"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="25"/>
       <c r="E11" s="7" t="s">
         <v>390</v>
@@ -20100,12 +20100,12 @@
       <c r="I11" s="9">
         <v>4</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1">
-      <c r="B12" s="32"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="7" t="s">
         <v>391</v>
       </c>
@@ -20121,11 +20121,11 @@
       <c r="I12" s="9">
         <v>2</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1">
-      <c r="B13" s="32"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="18" t="s">
         <v>9</v>
       </c>
@@ -20144,11 +20144,11 @@
       <c r="I13" s="9">
         <v>2</v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1">
-      <c r="B14" s="32"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="25"/>
       <c r="E14" s="7" t="s">
         <v>393</v>
@@ -20165,22 +20165,22 @@
       <c r="I14" s="9">
         <v>2</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="32"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="31">
         <v>16.6666666666667</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -20202,13 +20202,13 @@
         <f>SUM(I17:I23)</f>
         <v>12</v>
       </c>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="45" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1">
-      <c r="B17" s="32"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="25"/>
       <c r="E17" s="7" t="s">
         <v>396</v>
@@ -20225,12 +20225,12 @@
       <c r="I17" s="9">
         <v>2</v>
       </c>
-      <c r="J17" s="42"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" ht="60" customHeight="1">
-      <c r="B18" s="32"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="7" t="s">
         <v>397</v>
       </c>
@@ -20246,12 +20246,12 @@
       <c r="I18" s="9">
         <v>2</v>
       </c>
-      <c r="J18" s="42"/>
+      <c r="J18" s="45"/>
     </row>
     <row r="19" spans="2:10" ht="60" customHeight="1">
-      <c r="B19" s="32"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="7" t="s">
         <v>398</v>
       </c>
@@ -20267,12 +20267,12 @@
       <c r="I19" s="9">
         <v>2</v>
       </c>
-      <c r="J19" s="42"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1">
-      <c r="B20" s="32"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="7" t="s">
         <v>399</v>
       </c>
@@ -20288,11 +20288,11 @@
       <c r="I20" s="9">
         <v>2</v>
       </c>
-      <c r="J20" s="42"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1">
-      <c r="B21" s="32"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="18" t="s">
         <v>9</v>
       </c>
@@ -20311,11 +20311,11 @@
       <c r="I21" s="9">
         <v>2</v>
       </c>
-      <c r="J21" s="42"/>
+      <c r="J21" s="45"/>
     </row>
     <row r="22" spans="2:10" ht="30" customHeight="1">
-      <c r="B22" s="32"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="25"/>
       <c r="E22" s="7" t="s">
         <v>401</v>
@@ -20332,12 +20332,12 @@
       <c r="I22" s="9">
         <v>1</v>
       </c>
-      <c r="J22" s="42"/>
+      <c r="J22" s="45"/>
     </row>
     <row r="23" spans="2:10" ht="45" customHeight="1">
-      <c r="B23" s="32"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="7" t="s">
         <v>402</v>
       </c>
@@ -20353,22 +20353,22 @@
       <c r="I23" s="9">
         <v>1</v>
       </c>
-      <c r="J23" s="42"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="32"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="31">
         <v>16.6666666666667</v>
       </c>
       <c r="D25" s="18" t="s">
@@ -20390,13 +20390,13 @@
         <f>SUM(I26:I31)</f>
         <v>18</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="45" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1">
-      <c r="B26" s="32"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="25"/>
       <c r="E26" s="7" t="s">
         <v>405</v>
@@ -20413,12 +20413,12 @@
       <c r="I26" s="9">
         <v>3</v>
       </c>
-      <c r="J26" s="42"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="2:10" ht="30" customHeight="1">
-      <c r="B27" s="32"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="7" t="s">
         <v>406</v>
       </c>
@@ -20434,12 +20434,12 @@
       <c r="I27" s="9">
         <v>3</v>
       </c>
-      <c r="J27" s="42"/>
+      <c r="J27" s="45"/>
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1">
-      <c r="B28" s="32"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="7" t="s">
         <v>407</v>
       </c>
@@ -20455,11 +20455,11 @@
       <c r="I28" s="9">
         <v>3</v>
       </c>
-      <c r="J28" s="42"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1">
-      <c r="B29" s="32"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="18" t="s">
         <v>9</v>
       </c>
@@ -20478,11 +20478,11 @@
       <c r="I29" s="9">
         <v>3</v>
       </c>
-      <c r="J29" s="42"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1">
-      <c r="B30" s="32"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="25"/>
       <c r="E30" s="7" t="s">
         <v>409</v>
@@ -20499,12 +20499,12 @@
       <c r="I30" s="9">
         <v>3</v>
       </c>
-      <c r="J30" s="42"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="2:10" ht="45" customHeight="1">
-      <c r="B31" s="32"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="7" t="s">
         <v>410</v>
       </c>
@@ -20520,22 +20520,22 @@
       <c r="I31" s="9">
         <v>3</v>
       </c>
-      <c r="J31" s="42"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="32"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="31">
         <v>16.6666666666667</v>
       </c>
       <c r="D33" s="18" t="s">
@@ -20557,13 +20557,13 @@
         <f>SUM(I34:I42)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="40" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="30" customHeight="1">
-      <c r="B34" s="32"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="25"/>
       <c r="E34" s="7" t="s">
         <v>413</v>
@@ -20580,12 +20580,12 @@
       <c r="I34" s="9">
         <v>0</v>
       </c>
-      <c r="J34" s="33"/>
+      <c r="J34" s="40"/>
     </row>
     <row r="35" spans="2:10" ht="30" customHeight="1">
-      <c r="B35" s="32"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="7" t="s">
         <v>414</v>
       </c>
@@ -20601,12 +20601,12 @@
       <c r="I35" s="9">
         <v>0</v>
       </c>
-      <c r="J35" s="33"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="32"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="7" t="s">
         <v>415</v>
       </c>
@@ -20622,12 +20622,12 @@
       <c r="I36" s="9">
         <v>0</v>
       </c>
-      <c r="J36" s="33"/>
+      <c r="J36" s="40"/>
     </row>
     <row r="37" spans="2:10" ht="30" customHeight="1">
-      <c r="B37" s="32"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="7" t="s">
         <v>416</v>
       </c>
@@ -20643,12 +20643,12 @@
       <c r="I37" s="9">
         <v>0</v>
       </c>
-      <c r="J37" s="33"/>
+      <c r="J37" s="40"/>
     </row>
     <row r="38" spans="2:10" ht="45" customHeight="1">
-      <c r="B38" s="32"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="7" t="s">
         <v>417</v>
       </c>
@@ -20664,11 +20664,11 @@
       <c r="I38" s="9">
         <v>0</v>
       </c>
-      <c r="J38" s="33"/>
+      <c r="J38" s="40"/>
     </row>
     <row r="39" spans="2:10" ht="30" customHeight="1">
-      <c r="B39" s="32"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="18" t="s">
         <v>9</v>
       </c>
@@ -20687,11 +20687,11 @@
       <c r="I39" s="9">
         <v>0</v>
       </c>
-      <c r="J39" s="33"/>
+      <c r="J39" s="40"/>
     </row>
     <row r="40" spans="2:10" ht="30" customHeight="1">
-      <c r="B40" s="32"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="25"/>
       <c r="E40" s="7" t="s">
         <v>419</v>
@@ -20708,12 +20708,12 @@
       <c r="I40" s="9">
         <v>0</v>
       </c>
-      <c r="J40" s="33"/>
+      <c r="J40" s="40"/>
     </row>
     <row r="41" spans="2:10" ht="30" customHeight="1">
-      <c r="B41" s="32"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="7" t="s">
         <v>420</v>
       </c>
@@ -20729,12 +20729,12 @@
       <c r="I41" s="9">
         <v>0</v>
       </c>
-      <c r="J41" s="33"/>
+      <c r="J41" s="40"/>
     </row>
     <row r="42" spans="2:10" ht="30" customHeight="1">
-      <c r="B42" s="32"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="7" t="s">
         <v>421</v>
       </c>
@@ -20750,22 +20750,22 @@
       <c r="I42" s="9">
         <v>0</v>
       </c>
-      <c r="J42" s="33"/>
+      <c r="J42" s="40"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="32"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="31">
         <v>16.6666666666667</v>
       </c>
       <c r="D44" s="18" t="s">
@@ -20787,13 +20787,13 @@
         <f>SUM(I45:I53)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="42" t="s">
+      <c r="J44" s="45" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="32"/>
-      <c r="C45" s="23"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="25"/>
       <c r="E45" s="7" t="s">
         <v>424</v>
@@ -20810,12 +20810,12 @@
       <c r="I45" s="9">
         <v>0</v>
       </c>
-      <c r="J45" s="42"/>
+      <c r="J45" s="45"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="32"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="7" t="s">
         <v>425</v>
       </c>
@@ -20831,12 +20831,12 @@
       <c r="I46" s="9">
         <v>0</v>
       </c>
-      <c r="J46" s="42"/>
+      <c r="J46" s="45"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="32"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="7" t="s">
         <v>426</v>
       </c>
@@ -20852,12 +20852,12 @@
       <c r="I47" s="9">
         <v>0</v>
       </c>
-      <c r="J47" s="42"/>
+      <c r="J47" s="45"/>
     </row>
     <row r="48" spans="2:10" ht="30" customHeight="1">
-      <c r="B48" s="32"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="7" t="s">
         <v>427</v>
       </c>
@@ -20873,12 +20873,12 @@
       <c r="I48" s="9">
         <v>0</v>
       </c>
-      <c r="J48" s="42"/>
+      <c r="J48" s="45"/>
     </row>
     <row r="49" spans="2:10" ht="30" customHeight="1">
-      <c r="B49" s="32"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="7" t="s">
         <v>428</v>
       </c>
@@ -20894,11 +20894,11 @@
       <c r="I49" s="9">
         <v>0</v>
       </c>
-      <c r="J49" s="42"/>
+      <c r="J49" s="45"/>
     </row>
     <row r="50" spans="2:10" ht="30" customHeight="1">
-      <c r="B50" s="32"/>
-      <c r="C50" s="23"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="18" t="s">
         <v>9</v>
       </c>
@@ -20917,11 +20917,11 @@
       <c r="I50" s="9">
         <v>0</v>
       </c>
-      <c r="J50" s="42"/>
+      <c r="J50" s="45"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="32"/>
-      <c r="C51" s="23"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="25"/>
       <c r="E51" s="7" t="s">
         <v>430</v>
@@ -20938,12 +20938,12 @@
       <c r="I51" s="9">
         <v>0</v>
       </c>
-      <c r="J51" s="42"/>
+      <c r="J51" s="45"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="32"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="7" t="s">
         <v>431</v>
       </c>
@@ -20959,12 +20959,12 @@
       <c r="I52" s="9">
         <v>0</v>
       </c>
-      <c r="J52" s="42"/>
+      <c r="J52" s="45"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="32"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="7" t="s">
         <v>432</v>
       </c>
@@ -20980,22 +20980,22 @@
       <c r="I53" s="9">
         <v>0</v>
       </c>
-      <c r="J53" s="42"/>
+      <c r="J53" s="45"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="32"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="42" t="s">
         <v>433</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="31">
         <v>16.6666666666667</v>
       </c>
       <c r="D55" s="18" t="s">
@@ -21017,13 +21017,13 @@
         <f>SUM(I56:I59)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="33" t="s">
+      <c r="J55" s="40" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="30.75">
-      <c r="B56" s="32"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="25"/>
       <c r="E56" s="7" t="s">
         <v>435</v>
@@ -21040,12 +21040,12 @@
       <c r="I56" s="9">
         <v>0</v>
       </c>
-      <c r="J56" s="33"/>
+      <c r="J56" s="40"/>
     </row>
     <row r="57" spans="2:10" ht="45.75">
-      <c r="B57" s="32"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="7" t="s">
         <v>436</v>
       </c>
@@ -21061,11 +21061,11 @@
       <c r="I57" s="9">
         <v>0</v>
       </c>
-      <c r="J57" s="33"/>
+      <c r="J57" s="40"/>
     </row>
     <row r="58" spans="2:10" ht="30.75">
-      <c r="B58" s="32"/>
-      <c r="C58" s="23"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="18" t="s">
         <v>9</v>
       </c>
@@ -21084,11 +21084,11 @@
       <c r="I58" s="9">
         <v>0</v>
       </c>
-      <c r="J58" s="33"/>
+      <c r="J58" s="40"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="32"/>
-      <c r="C59" s="23"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="25"/>
       <c r="E59" s="7" t="s">
         <v>438</v>
@@ -21105,22 +21105,36 @@
       <c r="I59" s="9">
         <v>0</v>
       </c>
-      <c r="J59" s="33"/>
+      <c r="J59" s="40"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="32"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="J55:J59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B44:B54"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C33:C43"/>
+    <mergeCell ref="D45:D49"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="J33:J42"/>
@@ -21137,27 +21151,13 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J16:J23"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="B44:B54"/>
-    <mergeCell ref="B33:B43"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C33:C43"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="J55:J59"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C16:C24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21184,7 +21184,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>439</v>
       </c>
       <c r="D1" s="49"/>
@@ -21194,7 +21194,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>440</v>
       </c>
       <c r="D2" s="49"/>
@@ -21207,15 +21207,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>285</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -21261,13 +21261,13 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -21283,10 +21283,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>16.666666666666671</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -21409,10 +21409,10 @@
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="31">
         <v>16.666666666666671</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -21529,10 +21529,10 @@
       <c r="D27" s="49"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="31">
         <v>16.666666666666671</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -21625,10 +21625,10 @@
       <c r="D34" s="49"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="31">
         <v>16.666666666666671</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -21733,10 +21733,10 @@
       <c r="D42" s="49"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="31">
         <v>16.666666666666671</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -21877,10 +21877,10 @@
       <c r="D53" s="49"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="31">
         <v>16.666666666666671</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -22047,6 +22047,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="J54:J65"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C54:C66"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="B54:B66"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B35:B42"/>
@@ -22063,34 +22091,6 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C54:C66"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="J54:J65"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D25:D27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22117,7 +22117,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>504</v>
       </c>
       <c r="D1" s="49"/>
@@ -22127,7 +22127,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>505</v>
       </c>
       <c r="D2" s="49"/>
@@ -22140,15 +22140,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>506</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -22194,13 +22194,13 @@
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -22216,10 +22216,10 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -22372,10 +22372,10 @@
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -22552,10 +22552,10 @@
       <c r="D30" s="49"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -22738,10 +22738,10 @@
       <c r="D42" s="49"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -22924,10 +22924,10 @@
       <c r="D54" s="49"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="30" t="s">
         <v>555</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -23065,10 +23065,10 @@
       <c r="D63" s="49"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="C64" s="24">
+      <c r="C64" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -23221,10 +23221,10 @@
       <c r="D73" s="49"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="30" t="s">
         <v>574</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C74" s="31">
         <v>14.28571428571429</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -23348,6 +23348,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="J74:J80"/>
+    <mergeCell ref="C20:C30"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="J55:J62"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="J64:J72"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="J31:J41"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="C31:C42"/>
+    <mergeCell ref="J43:J53"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="J20:J29"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C43:C54"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="C64:C73"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B55:B63"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B10:B19"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E8:E9"/>
@@ -23364,57 +23397,23 @@
     <mergeCell ref="D70:D73"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="B74:B81"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="C64:C73"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B55:B63"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="J64:J72"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J31:J41"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="C31:C42"/>
-    <mergeCell ref="J43:J53"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="J20:J29"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C43:C54"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J74:J80"/>
-    <mergeCell ref="C20:C30"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="J55:J62"/>
-    <mergeCell ref="D61:D63"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcacaf0f-47d6-4512-8755-33aa81f58d6d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A5A555947EA08B4492B5A01D27630555" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="dd82ada882069ac16fe601160e97ab22">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fcacaf0f-47d6-4512-8755-33aa81f58d6d" xmlns:ns3="e86545fc-a686-4a97-98c8-7cf5c396f016" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9368a896100fd3a647c25a75e64d9ec" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A5A555947EA08B4492B5A01D27630555" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="aefc23d1fcd7657c59102621f2af9be9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fcacaf0f-47d6-4512-8755-33aa81f58d6d" xmlns:ns3="e86545fc-a686-4a97-98c8-7cf5c396f016" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29ada23619a1ee36c99f0d192b4bcace" ns2:_="" ns3:_="">
     <xsd:import namespace="fcacaf0f-47d6-4512-8755-33aa81f58d6d"/>
     <xsd:import namespace="e86545fc-a686-4a97-98c8-7cf5c396f016"/>
     <xsd:element name="properties">
@@ -23636,22 +23635,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcacaf0f-47d6-4512-8755-33aa81f58d6d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2260EC-58DD-4906-A078-0E4D542CAE58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E364FA4-90E1-49E0-B26A-99B627B62A39}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{876FF89C-DCD9-4AC2-B8CF-C913BA01101A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABC7791B-9362-49CE-8019-A937D9E34922}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E364FA4-90E1-49E0-B26A-99B627B62A39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2260EC-58DD-4906-A078-0E4D542CAE58}"/>
 </file>